--- a/Exc1/landscape.xlsx
+++ b/Exc1/landscape.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\PycharmProjects\Yandex\Sprint9\architecture-sprint-9\Exc1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15CD21E-FB7E-43AB-B420-C150C5A2C267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36478D1F-A9E8-4140-9884-40871A78EA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5535" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Обслуживание в отделениях</t>
   </si>
@@ -81,17 +83,86 @@
     <t>Организационная структура</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>+-</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>знес-возможности</t>
+  </si>
+  <si>
+    <t>Команда цифровой трансформации</t>
+  </si>
+  <si>
+    <t>АБС</t>
+  </si>
+  <si>
+    <t>Система кол-центра</t>
+  </si>
+  <si>
+    <t>Система партнёрского кол-центра</t>
+  </si>
+  <si>
+    <t>Система кол-центра (CRM)</t>
+  </si>
+  <si>
+    <t>СМС-шлюз</t>
+  </si>
+  <si>
+    <t>Интернет-банк</t>
+  </si>
+  <si>
+    <t>Сайт</t>
+  </si>
+  <si>
+    <t>Биззнес-возможности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +173,14 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +244,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,279 +531,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="10" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B487A4-D5CC-4267-8EF6-D1A95A07856C}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585BD4C0-DDCD-4856-A93E-4A5C939B8503}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>